--- a/medicine/Enfance/Prix_Sorcières/Prix_Sorcières.xlsx
+++ b/medicine/Enfance/Prix_Sorcières/Prix_Sorcières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Sorci%C3%A8res</t>
+          <t>Prix_Sorcières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Sorcières est un prix littéraire français qui distingue chaque année, depuis 1986, une œuvre de la littérature jeunesse[1]. Il est décerné par l'ALSJ (Association des librairies spécialisées jeunesse), en partenariat, depuis 1989, avec l'ABF (Association des bibliothécaires de France). En 1997, une "commission Prix sorcières" a vu le jour à l'ABF[2], suivie de « commissions sorcières » établies dans différents groupes régionaux de l'ABF, dans le but d'élargir les actions organisées autour de ce prix (rencontre des auteurs primés en bibliothèques, journées de formation sur le livre jeunesse, etc.).
-En 2018, les catégories sont modifiées[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Sorcières est un prix littéraire français qui distingue chaque année, depuis 1986, une œuvre de la littérature jeunesse. Il est décerné par l'ALSJ (Association des librairies spécialisées jeunesse), en partenariat, depuis 1989, avec l'ABF (Association des bibliothécaires de France). En 1997, une "commission Prix sorcières" a vu le jour à l'ABF, suivie de « commissions sorcières » établies dans différents groupes régionaux de l'ABF, dans le but d'élargir les actions organisées autour de ce prix (rencontre des auteurs primés en bibliothèques, journées de formation sur le livre jeunesse, etc.).
+En 2018, les catégories sont modifiées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Sorci%C3%A8res</t>
+          <t>Prix_Sorcières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Nouvelles catégories à partir de 2018</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2018, les catégories sont remaniées : « Les 6 catégories classiques qui ont peu évolué depuis la naissance du prix sont balayées et laissent place à 3 grandes catégories d’ouvrages, divisées chacune en univers Mini (- de 10 ans) et univers Maxi (+ de 10 ans).
 Carrément Beau :
@@ -524,7 +538,7 @@
 Carrément Sorcières :
 Fiction
 Non Fiction
-La catégorie Carrément Beau donne la part belle à l’esthétisme, Carrément Passionnant au scénario et à l’histoire, et Carrément Sorcières est une catégorie à part pour des livres un peu exceptionnels[3]. »
+La catégorie Carrément Beau donne la part belle à l’esthétisme, Carrément Passionnant au scénario et à l’histoire, et Carrément Sorcières est une catégorie à part pour des livres un peu exceptionnels. »
 </t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Sorci%C3%A8res</t>
+          <t>Prix_Sorcières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Catégorie tout-petits
-1987 : Christian Bruel, illustré par Anne Bozellec, Liberté Nounours, Le sourire qui mord, coll. « Plaisirs »
+          <t>Catégorie tout-petits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1987 : Christian Bruel, illustré par Anne Bozellec, Liberté Nounours, Le sourire qui mord, coll. « Plaisirs »
 1988 : Claude Ponti, Adèle s'en mêle, Gallimard Jeunesse
 1989 : Marie-Claire Bruley, Lya Tourn, illustré par Philippe Dumas, Enfantines, L'École des loisirs
 1990 : Jan Ormerod, Une casserole pour jouer, Milan
@@ -586,9 +605,43 @@
 2014  : Julie Safirstein, Le jour la nuit tout autour, Hélium
 2015 : Édouard Manceau, Le Petit Curieux, Ed. Milan Jeunesse
 2016 : Corinne Dreyfuss, Pomme, pomme, pomme, Éditions Thierry Magnier
-2017 : Delphine Chedru, Paul a dit ! Tourne la page et découvre la surprise, Hélium
-Catégorie albums
-1986 : Toshi Yoshida, La Querelle, L'École des loisirs
+2017 : Delphine Chedru, Paul a dit ! Tourne la page et découvre la surprise, Hélium</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Catégorie albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1986 : Toshi Yoshida, La Querelle, L'École des loisirs
 1987 : Michael Palin, Richard Seymour, illustré par Alan Lee, La Pierre de cristal, Casterman
 1988 : Anne Quesemand, Laurent Berman, La Mort marraine, Ipomée
 1989 : Claude Clément, Frédéric Clément, Le Luthier de Venise, L'École des loisirs
@@ -619,9 +672,43 @@
 2014 : Roberto Innocenti et Aaron Frisch, La Petite Fille en rouge, Gallimard
 2015 : Edward Van de Vendel , Le chien que Nino n'avait pas, Didier Jeunesse
 2016 : Frédéric Marais, Yasuké, Éd. Les fourmis rouges
-2017 : Nada Matta, Petite Pépite, MeMo
-Catégorie premières lectures
-1989 : Marie-Aude Murail, Le Chien des mers, L'École des loisirs
+2017 : Nada Matta, Petite Pépite, MeMo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Catégorie premières lectures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1989 : Marie-Aude Murail, Le Chien des mers, L'École des loisirs
 1990 : Marie-Aude Murail, illustré par Michel Gay, Le Hollandais sans peine, L'École des loisirs
 1991 : Ann Cameron, illustré par Thomas B. Allen, Le Plus Bel Endroit du monde, L'École des loisirs
 1992 : Claude Ponti, Broutille, L'École des loisirs
@@ -649,9 +736,43 @@
 2014 : Agnès Domergue et Cécile Hudrisier, Il était une fois... Contes en haïkus, Thierry Magnier
 2015 : Hélène Rice (texte), Ronan Badel (illustrations), Le Meilleur Livre pour apprendre à dessiner une vache, Thierry Magnier
 2016 : Jacques Goldstyn, L'Arbragan, La Pastèque
-2017 : Delphine Perret, Björn : six histoires d'ours, éd. Les Fourmis rouges
-Catégorie romans (jusqu'en 1997)[4]
-1986 : Bethan Roberts, Manganinnie et l’enfant volé, Flammarion
+2017 : Delphine Perret, Björn : six histoires d'ours, éd. Les Fourmis rouges</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Catégorie romans (jusqu'en 1997)[4]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1986 : Bethan Roberts, Manganinnie et l’enfant volé, Flammarion
 1987 : Azouz Begag, Le Gône du châaba, Éditions du Seuil
 1988 : Natalie Babbitt, Les Yeux de l’amaryllis, Gallimard Jeunesse
 1989 : Thierry Lenain, Un pacte avec le diable, Syros
@@ -662,9 +783,43 @@
 1994 : Thierry Lenain, La Fille du canal, Syros
 1995 : Michel Honaker, Le Chevalier de Terre Noire, Tome 1 : L’adieu au domaine et Tome 2 : Le bras de la vengeance, Rageot
 1996 : Marie Brantôme, Avec tout ce qu’on a fait pour toi, Seuil Jeunesse
-1997 : Luis Sepulveda, illustré par Miles Hyman, Histoire d’une mouette et du chat qui lui apprit à voler, Métailié et Éditions du Seuil
-Catégorie romans 9-12
-1998 : Yaël Hassan, Un grand-père tombé du ciel, Casterman
+1997 : Luis Sepulveda, illustré par Miles Hyman, Histoire d’une mouette et du chat qui lui apprit à voler, Métailié et Éditions du Seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Catégorie romans 9-12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1998 : Yaël Hassan, Un grand-père tombé du ciel, Casterman
 1999 : J. K. Rowling, Harry Potter à l'école des sorciers, Gallimard
 2000 : Jean-Claude Mourlevat, L'Enfant Océan, Pocket Junior
 2001 : Michael Morpurgo, illustré par François Place, Le Royaume de Kensuké, Gallimard Jeunesse
@@ -683,9 +838,43 @@
 2014 : Pam Muñoz Ryan (en), Le Rêveur, illustré par Peter Sís, Bayard jeunesse
 2015 : Katherine Rundell, Le ciel nous appartient ((en) Rooftoppers, trad. Emmanuelle Ghez), Les grandes personnes
 2016 : Michael Morpurgo, Le Mystère de Lucy Lost, Gallimard jeunesse
-2017 : Jakob Wegelius, Sally Jones ((sv) Legenden om Sally Jones, traduction de Agneta Ségol et Marianne Ségol-Samoy), Thierry Magnier
-Catégorie romans adolescents
-1998 : Berthe Burko-Falcman, L’Enfant caché, Le Seuil
+2017 : Jakob Wegelius, Sally Jones ((sv) Legenden om Sally Jones, traduction de Agneta Ségol et Marianne Ségol-Samoy), Thierry Magnier</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Catégorie romans adolescents</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1998 : Berthe Burko-Falcman, L’Enfant caché, Le Seuil
 1999 : Janine Teisson, Au cinéma Lux, Syros
 2000 : Malika Ferdjoukh, Sombres Citrouilles, L'École des loisirs, coll. « Medium »
 2001 : Louis Sachar, Le Passage ((en) Holes, trad. Jean-François Ménard), L'École des loisirs, coll. « Medium »
@@ -706,9 +895,43 @@
 2014 : Jacqueline Kelly, Calpurnia ((en) The evolution of Calpurnia Tate, trad. Diane Ménard), L'Ecole des loisirs, coll. "Medium"
 2015 : Anne Fine, Le Passage du diable ((en) The devil walks, trad. Dominique Kugler), L'école des loisirs
 2016 : Clémentine Beauvais, Les Petites Reines, Sarbacane
-2017 : Xavier-Laurent Petit, Le Fils de l'Ursari, Ecole des Loisirs
-Catégorie documentaires
-1986 : Joanna Cole, Kenneth Lily, Animaux de jour, grandeur nature et Animaux de nuit, grandeur nature, Casterman
+2017 : Xavier-Laurent Petit, Le Fils de l'Ursari, Ecole des Loisirs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Catégorie documentaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1986 : Joanna Cole, Kenneth Lily, Animaux de jour, grandeur nature et Animaux de nuit, grandeur nature, Casterman
 1987 : Michel Pierre, avec la collab. de Antoine Sabbagh, illustré par Morgan, L’Europe du Moyen Âge, Casterman
 1988 : Thierry Benardeau et Marcel Pineau, Histoire de la musique, la musique dans l’histoire, Hatier
 1989 : David Burnie, Le Nid, l'Œuf et l’Oiseau, Gallimard jeunesse
@@ -739,9 +962,43 @@
 2014 : Thierry Lenain et Benoît Morel, C'est ta vie ! L'encyclopédie qui parle d'amitié, d'amour et de sexe aux enfants, Oskar
 2015 : Yvan Pommaux (texte et illustration) et Christophe Ylla-Somers, Nous, notre histoire, L'école des loisirs
 2016 : Pascale Hédelin, Cité Babel , Les Éditions des Éléphants
-2017 : Julie Guillem, Atlas des nuages, Actes Sud junior
-Prix spécial
-1989 : Prix spécial Révolution pour Hervé Luxardo et Gérard Finel, Douze idées qui changèrent le monde : la Révolution française, Hachette Jeunesse
+2017 : Julie Guillem, Atlas des nuages, Actes Sud junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, jusqu'en 2017</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix spécial</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1989 : Prix spécial Révolution pour Hervé Luxardo et Gérard Finel, Douze idées qui changèrent le monde : la Révolution française, Hachette Jeunesse
 1991 : Grand prix spécial remis pour les 10 ans de l’Association à Pef
 1993 : Daniel Pennac, Comme un roman, Gallimard
 1997 : Claude Boujon, La Chaise bleue, L'École des loisirs
@@ -757,83 +1014,279 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Prix_Sorci%C3%A8res</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liste des lauréats par catégorie, depuis 2018</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Carrément Beau
-Univers Mini
-2018 : Profession Crocodile, texte de Giovanna Zoboli, illustrations de Mariachiara Di Giorgio, éd. Les Fourmis rouges
-2019 : Une super histoire de cow-boy , Delphine Perret, éd. Les Fourmis rouges [5]
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Carrément Beau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Univers Mini</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2018 : Profession Crocodile, texte de Giovanna Zoboli, illustrations de Mariachiara Di Giorgio, éd. Les Fourmis rouges
+2019 : Une super histoire de cow-boy , Delphine Perret, éd. Les Fourmis rouges 
 2020 : Les choses qui s'en vont, Beatrice Alemagna, Hélium
-2021 : Juste un fraisier, Amandine Laprun, éditions Actes Sud Junior[6]
-2022 : La Nuit de la fête foraine, Gideon Sterer et Mariachiara Di Giorgio, éd. Les Fourmis rouges[7]
-2023 : L'imagier des sens, Anne Crausaz - Ed. Askip[8]
-2024 : Chez Bergamote, Junko Nakamura, Editions MeMo[9]
-Univers Maxi
-2018 : Le Jardin du dedans dehors, texte de Chiara Mezzalama, illustrations de Régis Lejonc , Les Éditions des Éléphants
+2021 : Juste un fraisier, Amandine Laprun, éditions Actes Sud Junior
+2022 : La Nuit de la fête foraine, Gideon Sterer et Mariachiara Di Giorgio, éd. Les Fourmis rouges
+2023 : L'imagier des sens, Anne Crausaz - Ed. Askip
+2024 : Chez Bergamote, Junko Nakamura, Editions MeMo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, depuis 2018</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Carrément Beau</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Univers Maxi</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2018 : Le Jardin du dedans dehors, texte de Chiara Mezzalama, illustrations de Régis Lejonc , Les Éditions des Éléphants
 2019 : Petit soldat, Pierre-Jacques et Jules Ober, Seuil jeunesse
 2020 : Cap !, Loren Capelli, Éditions courtes et longues
-2021 : Nuit étoilée, de Jimmy Liao, traduit par Chun-Liang Yeh, HongFei Cultures[6]
-2022 : Le Plus Bel Été du monde, Delphine Perret, éd. Les Fourmis rouges[7]
-2023 : L’expédition, Stéphane Servant et Audrey Spiry - Ed. Thierry Magnier[8]
-2024 : Le jardin de Baba, Jordan Scott, illustrations Sydney Smith ,traduction Michèle Moreau, Editions Didier Jeunesse[9]
-Carrément Passionnant
-Univers Mini
-2018 : Pax et le petit soldat, texte de Sara Pennypacker, illustrations de Jon Klassen, éditions Gallimard
+2021 : Nuit étoilée, de Jimmy Liao, traduit par Chun-Liang Yeh, HongFei Cultures
+2022 : Le Plus Bel Été du monde, Delphine Perret, éd. Les Fourmis rouges
+2023 : L’expédition, Stéphane Servant et Audrey Spiry - Ed. Thierry Magnier
+2024 : Le jardin de Baba, Jordan Scott, illustrations Sydney Smith ,traduction Michèle Moreau, Editions Didier Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, depuis 2018</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Carrément Passionnant</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Univers Mini</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2018 : Pax et le petit soldat, texte de Sara Pennypacker, illustrations de Jon Klassen, éditions Gallimard
 2019 : Naissance d'un chef (La Naissance de Podkin le Brave, tome 1), Kieran Larwood, éditions Gallimard
 2020 : L'Arrêt du cœur, ou comment Simon découvrit l'amour dans une cuisine, d'Agnès Debacker et Anaïs Brunet, éditions MeMo
-2021 : Quand les escargots vont au ciel, de Delphine Vallette, illustrations Pierre-Emmanuel Lyet, éditions Seuil Jeunesse[6]
-2022 : Lilly sous la mer, Thomas Lavachery, L'École des loisirs[7]
-2023 : Mémoires de la forêt. Les souvenirs de Ferdinand Taupe, Mickaël Brun-Arnaud et Sanoe - Ed. l’École des Loisirs[8]
-2024 : Monstres, Stéphane Servant, illustrations Nicolas Zouliamis, Editions Thierry Magnier[9]
-Univers Maxi
-2018 : Sirius, Stéphane Servant, éditions du Rouergue
+2021 : Quand les escargots vont au ciel, de Delphine Vallette, illustrations Pierre-Emmanuel Lyet, éditions Seuil Jeunesse
+2022 : Lilly sous la mer, Thomas Lavachery, L'École des loisirs
+2023 : Mémoires de la forêt. Les souvenirs de Ferdinand Taupe, Mickaël Brun-Arnaud et Sanoe - Ed. l’École des Loisirs
+2024 : Monstres, Stéphane Servant, illustrations Nicolas Zouliamis, Editions Thierry Magnier</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, depuis 2018</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Carrément Passionnant</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Univers Maxi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2018 : Sirius, Stéphane Servant, éditions du Rouergue
 2019 : Milly Vodović, Nastasia Rugani, éditions MeMo
 2020 : L'Estrange Malaventure de Mirella, Flore Vesco, L'École des loisirs
-2021 : Alma, le vent se lève, de Timothée de Fombelle, illustrations François Place, éditions Gallimard Jeunesse[6]
-2022 : D'or et d'oreillers, Flore Vesco, L'École des loisirs[7]
-2023 : Et le ciel se voila de fureur, Taï-Marc Le Thanh - Ed. l’École des Loisirs[8]
-2024 : Nous traverserons des orages, Anne-Laure Bondoux, Editions Gallimard Jeunesse[9]
-Carrément Sorcières
-Fiction
-2018 : Cœur de bois, texte de Henri Meunier, illustrations de Régis Lejonc, éditions Notari
+2021 : Alma, le vent se lève, de Timothée de Fombelle, illustrations François Place, éditions Gallimard Jeunesse
+2022 : D'or et d'oreillers, Flore Vesco, L'École des loisirs
+2023 : Et le ciel se voila de fureur, Taï-Marc Le Thanh - Ed. l’École des Loisirs
+2024 : Nous traverserons des orages, Anne-Laure Bondoux, Editions Gallimard Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, depuis 2018</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Carrément Sorcières</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2018 : Cœur de bois, texte de Henri Meunier, illustrations de Régis Lejonc, éditions Notari
 2019 : Duel au soleil, Manuel Marsol, éditions L'Agrume
-2020 : Le Dernier Roi des loups : l'histoire vraie de Lobo le loup et d'Ernest Thompson le chasseur, William Grill, éditions Sarbacane [10]
-2021 : Migrants, d'Issa Watanabe, éditions La Joie de Lire[6]
-2022 : Il était une forme, Gazhole et Cruschiform, éditions Maison Georges[7]
-2023 : L'oiseau en moi vole où il veut, Sara Lundberg, trad. Jean-Baptiste Coursaud - Ed. La Partie[8]
-2024 : Nuit de chance, Sarah Cheveau, Editions La Partie[9]
-Non Fiction
-2018 : Colorama, Cruschiform, éditions Gallimard
+2020 : Le Dernier Roi des loups : l'histoire vraie de Lobo le loup et d'Ernest Thompson le chasseur, William Grill, éditions Sarbacane 
+2021 : Migrants, d'Issa Watanabe, éditions La Joie de Lire
+2022 : Il était une forme, Gazhole et Cruschiform, éditions Maison Georges
+2023 : L'oiseau en moi vole où il veut, Sara Lundberg, trad. Jean-Baptiste Coursaud - Ed. La Partie
+2024 : Nuit de chance, Sarah Cheveau, Editions La Partie</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Prix_Sorcières</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sorci%C3%A8res</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par catégorie, depuis 2018</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Carrément Sorcières</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Non Fiction</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2018 : Colorama, Cruschiform, éditions Gallimard
 2019 : Musée des museaux amusants, Fanny Pageaud, éditions L'Atelier du poisson soluble
 2020 : Dans tous les sens, Philippe Nessmann, Régis Lejonc et Célestin Foretier, Seuil Jeunesse
-2021 : La Fabuleuse Histoire de la Terre, d'Aina Bestard et le Musée des Sciences de Barcelone, traduit par Philippe Godard, éditions Saltimbanque[6].
-2022 : Yahho Japon !, Éva Offredo, éditions Maison Georges[7]
-2023 : Le tour du monde en 24 marchés, Maria Bakhareva et Anna Desnitskaya, trad. Margaux Rochefort - Ed. La Partie[8]
-2024 : L’imagier, Émilie Chazerand, illustrations Anna Wanda Gogusey, Editions La ville brûle[9]</t>
+2021 : La Fabuleuse Histoire de la Terre, d'Aina Bestard et le Musée des Sciences de Barcelone, traduit par Philippe Godard, éditions Saltimbanque.
+2022 : Yahho Japon !, Éva Offredo, éditions Maison Georges
+2023 : Le tour du monde en 24 marchés, Maria Bakhareva et Anna Desnitskaya, trad. Margaux Rochefort - Ed. La Partie
+2024 : L’imagier, Émilie Chazerand, illustrations Anna Wanda Gogusey, Editions La ville brûle</t>
         </is>
       </c>
     </row>
